--- a/Perf Res.xlsx
+++ b/Perf Res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myadvantest-my.sharepoint.com/personal/akash_singh_advantest_com/Documents/Desktop/FirstWeek/REDMINE ANALYSIS/Performance Nixus vs Kamino/Linux_Performance_Enhance-_Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC104862C9DD6FCC5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83613241-71A5-4511-8846-2B8D27818783}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC104862C9DD6FCC5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E0BAD44-E019-4538-B6BC-50DF11FD435E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>RUN  1</t>
   </si>
@@ -171,6 +171,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1127,6 +1131,346 @@
         <v>339926.74</v>
       </c>
     </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1">
+        <v>382664.6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>316044.09000000003</v>
+      </c>
+      <c r="D38" s="1">
+        <v>305402.25</v>
+      </c>
+      <c r="E38" s="1">
+        <v>434107.73</v>
+      </c>
+      <c r="F38" s="1">
+        <v>434762.61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1">
+        <v>430558.71</v>
+      </c>
+      <c r="C39" s="1">
+        <v>282633.02</v>
+      </c>
+      <c r="D39" s="1">
+        <v>220610.46</v>
+      </c>
+      <c r="E39" s="1">
+        <v>282491.09000000003</v>
+      </c>
+      <c r="F39" s="1">
+        <v>430799.71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1">
+        <v>430453.31</v>
+      </c>
+      <c r="C40" s="1">
+        <v>298363.5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>336659.71</v>
+      </c>
+      <c r="E40" s="1">
+        <v>294004.25</v>
+      </c>
+      <c r="F40" s="1">
+        <v>368397.13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1">
+        <v>304947.18</v>
+      </c>
+      <c r="C41" s="1">
+        <v>305447.39</v>
+      </c>
+      <c r="D41" s="1">
+        <v>302950.93</v>
+      </c>
+      <c r="E41" s="1">
+        <v>416192.93</v>
+      </c>
+      <c r="F41" s="1">
+        <v>339567.04</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>336746.48</v>
+      </c>
+      <c r="C42" s="1">
+        <v>351800.72</v>
+      </c>
+      <c r="D42" s="1">
+        <v>348044.81</v>
+      </c>
+      <c r="E42" s="1">
+        <v>308288.84999999998</v>
+      </c>
+      <c r="F42" s="1">
+        <v>309568.59000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>317862.69</v>
+      </c>
+      <c r="C43" s="1">
+        <v>352846.69</v>
+      </c>
+      <c r="D43" s="1">
+        <v>430755.16</v>
+      </c>
+      <c r="E43" s="1">
+        <v>403857.07</v>
+      </c>
+      <c r="F43" s="1">
+        <v>312514.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1">
+        <v>143859.54999999999</v>
+      </c>
+      <c r="C44" s="1">
+        <v>426828.48</v>
+      </c>
+      <c r="D44" s="1">
+        <v>373967.99</v>
+      </c>
+      <c r="E44" s="1">
+        <v>237182.76</v>
+      </c>
+      <c r="F44" s="1">
+        <v>199394.31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1">
+        <v>432057.99</v>
+      </c>
+      <c r="C45" s="1">
+        <v>247905.68</v>
+      </c>
+      <c r="D45" s="1">
+        <v>376234.43</v>
+      </c>
+      <c r="E45" s="1">
+        <v>168598.88</v>
+      </c>
+      <c r="F45" s="1">
+        <v>218772.72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="2">
+        <v>436863.12</v>
+      </c>
+      <c r="C46" s="2">
+        <v>286384.90000000002</v>
+      </c>
+      <c r="D46" s="2">
+        <v>351528.72</v>
+      </c>
+      <c r="E46" s="2">
+        <v>324264.88</v>
+      </c>
+      <c r="F46" s="2">
+        <v>377005.47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="2">
+        <v>359776.18</v>
+      </c>
+      <c r="C47" s="2">
+        <v>384535.43</v>
+      </c>
+      <c r="D47" s="2">
+        <v>220543.61</v>
+      </c>
+      <c r="E47" s="2">
+        <v>413445.91</v>
+      </c>
+      <c r="F47" s="2">
+        <v>368996.69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="2">
+        <v>253561.83</v>
+      </c>
+      <c r="C48" s="2">
+        <v>399223.85</v>
+      </c>
+      <c r="D48" s="2">
+        <v>192535.94</v>
+      </c>
+      <c r="E48" s="2">
+        <v>361822.17</v>
+      </c>
+      <c r="F48" s="2">
+        <v>184406.15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="2">
+        <v>267064.3</v>
+      </c>
+      <c r="C49" s="2">
+        <v>195587.89</v>
+      </c>
+      <c r="D49" s="2">
+        <v>287338.64</v>
+      </c>
+      <c r="E49" s="2">
+        <v>156307.06</v>
+      </c>
+      <c r="F49" s="2">
+        <v>363635.46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="2">
+        <v>338260.99</v>
+      </c>
+      <c r="C50" s="2">
+        <v>424543.39</v>
+      </c>
+      <c r="D50" s="2">
+        <v>430085.24</v>
+      </c>
+      <c r="E50" s="2">
+        <v>432093.86</v>
+      </c>
+      <c r="F50" s="2">
+        <v>386739.45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="2">
+        <v>275912.06</v>
+      </c>
+      <c r="C51" s="2">
+        <v>232013.67</v>
+      </c>
+      <c r="D51" s="2">
+        <v>319603.44</v>
+      </c>
+      <c r="E51" s="2">
+        <v>203730.46</v>
+      </c>
+      <c r="F51" s="2">
+        <v>258155.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="2">
+        <v>303276.74</v>
+      </c>
+      <c r="C52" s="2">
+        <v>342079.64</v>
+      </c>
+      <c r="D52" s="2">
+        <v>386177.1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>314156.28999999998</v>
+      </c>
+      <c r="F52" s="2">
+        <v>382554.44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="2">
+        <v>371381.55</v>
+      </c>
+      <c r="C53" s="2">
+        <v>360459.79</v>
+      </c>
+      <c r="D53" s="2">
+        <v>399067.06</v>
+      </c>
+      <c r="E53" s="2">
+        <v>345041.44</v>
+      </c>
+      <c r="F53" s="2">
+        <v>378515.9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Perf Res.xlsx
+++ b/Perf Res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myadvantest-my.sharepoint.com/personal/akash_singh_advantest_com/Documents/Desktop/FirstWeek/REDMINE ANALYSIS/Performance Nixus vs Kamino/Linux_Performance_Enhance-_Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC104862C9DD6FCC5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E0BAD44-E019-4538-B6BC-50DF11FD435E}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_F25DC773A252ABDACC104862C9DD6FCC5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{710E0798-5ECF-4F31-BACB-1750C448F0E5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
   <si>
     <t>RUN  1</t>
   </si>
@@ -94,13 +94,16 @@
   </si>
   <si>
     <t>16 DUT | 5 ITR. | CGROUP</t>
+  </si>
+  <si>
+    <t>16 DUT | 5 ITR. | NUMA | CPU Enable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +116,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,12 +159,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1471,6 +1486,312 @@
         <v>378515.9</v>
       </c>
     </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="4">
+        <v>435156.87</v>
+      </c>
+      <c r="C56" s="4">
+        <v>433075.05</v>
+      </c>
+      <c r="D56" s="4">
+        <v>433073.57</v>
+      </c>
+      <c r="E56" s="4">
+        <v>436941.49</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="4">
+        <v>434907.1</v>
+      </c>
+      <c r="C57" s="4">
+        <v>433484.95</v>
+      </c>
+      <c r="D57" s="4">
+        <v>388272.08</v>
+      </c>
+      <c r="E57" s="4">
+        <v>379645.89</v>
+      </c>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="4">
+        <v>411435.27</v>
+      </c>
+      <c r="C58" s="4">
+        <v>424791.43</v>
+      </c>
+      <c r="D58" s="4">
+        <v>425224.08</v>
+      </c>
+      <c r="E58" s="4">
+        <v>350206.82</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="4">
+        <v>418395.57</v>
+      </c>
+      <c r="C59" s="4">
+        <v>357948.06</v>
+      </c>
+      <c r="D59" s="4">
+        <v>296342.58</v>
+      </c>
+      <c r="E59" s="4">
+        <v>393812.41</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="4">
+        <v>309814.90999999997</v>
+      </c>
+      <c r="C60" s="4">
+        <v>314764.25</v>
+      </c>
+      <c r="D60" s="4">
+        <v>308222</v>
+      </c>
+      <c r="E60" s="4">
+        <v>372936.33</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="4">
+        <v>311041.71999999997</v>
+      </c>
+      <c r="C61" s="4">
+        <v>302011.71000000002</v>
+      </c>
+      <c r="D61" s="4">
+        <v>369716.28</v>
+      </c>
+      <c r="E61" s="4">
+        <v>377491.64</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="4">
+        <v>416354.15</v>
+      </c>
+      <c r="C62" s="4">
+        <v>135861.99</v>
+      </c>
+      <c r="D62" s="4">
+        <v>133726.26</v>
+      </c>
+      <c r="E62" s="4">
+        <v>419512.13</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="4">
+        <v>237416.34</v>
+      </c>
+      <c r="C63" s="4">
+        <v>429565.32</v>
+      </c>
+      <c r="D63" s="4">
+        <v>413147.13</v>
+      </c>
+      <c r="E63" s="4">
+        <v>244402.4</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="4">
+        <v>372372.55</v>
+      </c>
+      <c r="C64" s="4">
+        <v>334445.71999999997</v>
+      </c>
+      <c r="D64" s="4">
+        <v>371995.86</v>
+      </c>
+      <c r="E64" s="4">
+        <v>363035.17</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="4">
+        <v>371622.40000000002</v>
+      </c>
+      <c r="C65" s="4">
+        <v>383682.15</v>
+      </c>
+      <c r="D65" s="4">
+        <v>366687.1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>366725.88</v>
+      </c>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="4">
+        <v>398313.48</v>
+      </c>
+      <c r="C66" s="4">
+        <v>405895.82</v>
+      </c>
+      <c r="D66" s="4">
+        <v>230478.34</v>
+      </c>
+      <c r="E66" s="4">
+        <v>393977.81</v>
+      </c>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="4">
+        <v>279487.82</v>
+      </c>
+      <c r="C67" s="4">
+        <v>122973.49</v>
+      </c>
+      <c r="D67" s="4">
+        <v>257101.6</v>
+      </c>
+      <c r="E67" s="4">
+        <v>321360.03999999998</v>
+      </c>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="4">
+        <v>416599.74</v>
+      </c>
+      <c r="C68" s="4">
+        <v>402093.31</v>
+      </c>
+      <c r="D68" s="4">
+        <v>394669.07</v>
+      </c>
+      <c r="E68" s="4">
+        <v>423755.46</v>
+      </c>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="4">
+        <v>400862.44</v>
+      </c>
+      <c r="C69" s="4">
+        <v>265183.38</v>
+      </c>
+      <c r="D69" s="4">
+        <v>339247.04</v>
+      </c>
+      <c r="E69" s="4">
+        <v>323646.08000000002</v>
+      </c>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="4">
+        <v>350544.77</v>
+      </c>
+      <c r="C70" s="4">
+        <v>338837.42</v>
+      </c>
+      <c r="D70" s="4">
+        <v>353083.16</v>
+      </c>
+      <c r="E70" s="4">
+        <v>310548.56</v>
+      </c>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="4">
+        <v>392049.64</v>
+      </c>
+      <c r="C71" s="4">
+        <v>345646.42</v>
+      </c>
+      <c r="D71" s="4">
+        <v>430836.75</v>
+      </c>
+      <c r="E71" s="4">
+        <v>395894.24</v>
+      </c>
+      <c r="F71" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
